--- a/data/evaluation/evaluation_South_Spring_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Sweet Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1358.939601767976</v>
+        <v>1372.971555505671</v>
       </c>
       <c r="C4" t="n">
-        <v>13336382.76045585</v>
+        <v>13391133.48972624</v>
       </c>
       <c r="D4" t="n">
-        <v>3651.901252834727</v>
+        <v>3659.3897701292</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06492414871047436</v>
+        <v>-0.06929605185743815</v>
       </c>
     </row>
     <row r="5">
